--- a/biology/Botanique/Trapelia_thieleana/Trapelia_thieleana.xlsx
+++ b/biology/Botanique/Trapelia_thieleana/Trapelia_thieleana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trapelia thieleana est une espèce de champignon qui forme des lichens. Il appartient à la des Trapeliaceae[1],[2]. Il a été décrit pour la première fois par le mycologue Gintaras Kantvilas, Steven Leavitt, John Elix and Thorsten Lumbsch[1],[2].
-Il a été trouvé dans la forêt de Mallee, sur des pierres meubles et des affleurements ferrifères[3]. en Australie de l'ouest, et sur l'île « Kangaroo Island » au sud de l'Australia[3],[4].
-Il est distinct de Trapelia coarctata par les taches pigmentaires jaune vif sur sa surface supérieure[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trapelia thieleana est une espèce de champignon qui forme des lichens. Il appartient à la des Trapeliaceae,. Il a été décrit pour la première fois par le mycologue Gintaras Kantvilas, Steven Leavitt, John Elix and Thorsten Lumbsch,.
+Il a été trouvé dans la forêt de Mallee, sur des pierres meubles et des affleurements ferrifères. en Australie de l'ouest, et sur l'île « Kangaroo Island » au sud de l'Australia,.
+Il est distinct de Trapelia coarctata par les taches pigmentaires jaune vif sur sa surface supérieure.
 </t>
         </is>
       </c>
